--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Eng.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N2">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q2">
-        <v>73.52782580219444</v>
+        <v>73.50867868658332</v>
       </c>
       <c r="R2">
-        <v>661.75043221975</v>
+        <v>661.57810817925</v>
       </c>
       <c r="S2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="T2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q3">
         <v>15.55887518719444</v>
@@ -635,10 +635,10 @@
         <v>140.02987668475</v>
       </c>
       <c r="S3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="T3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N4">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q4">
-        <v>2.388079110666666</v>
+        <v>2.861853769166666</v>
       </c>
       <c r="R4">
-        <v>21.492711996</v>
+        <v>25.7566839225</v>
       </c>
       <c r="S4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="T4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N5">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O5">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P5">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q5">
-        <v>2.345485925499999</v>
+        <v>2.392990968583333</v>
       </c>
       <c r="R5">
-        <v>21.1093733295</v>
+        <v>21.53691871725</v>
       </c>
       <c r="S5">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="T5">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
     </row>
   </sheetData>
